--- a/INTLINE/data/142/STANOR/old/09672 Current and capital account (Exports).xlsx
+++ b/INTLINE/data/142/STANOR/old/09672 Current and capital account (Exports).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="217">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="218">
   <x:si>
     <x:t>09672: Current and capital account. Current prices (NOK million), by contents, item and quarter</x:t>
   </x:si>
@@ -508,6 +508,9 @@
     <x:t>2021K3</x:t>
   </x:si>
   <x:si>
+    <x:t>2021K4</x:t>
+  </x:si>
+  <x:si>
     <x:t>Current and capital account</x:t>
   </x:si>
   <x:si>
@@ -604,13 +607,13 @@
     <x:t>MEMO: Services export when import of goods FOB</x:t>
   </x:si>
   <x:si>
-    <x:t>Latest update:</x:t>
+    <x:t>Updated:</x:t>
   </x:si>
   <x:si>
     <x:t>Current and capital account:</x:t>
   </x:si>
   <x:si>
-    <x:t>20211201 08:00</x:t>
+    <x:t>20220302 08:00</x:t>
   </x:si>
   <x:si>
     <x:t>Source:</x:t>
@@ -1053,23 +1056,21 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:FI76"/>
+  <x:dimension ref="A1:FJ76"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="28.650625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="40.710625" style="0" customWidth="1"/>
-    <x:col min="3" max="165" width="8.300625" style="0" customWidth="1"/>
+    <x:col min="1" max="166" width="9.140625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:165">
+    <x:row r="1" spans="1:166">
       <x:c r="A1" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:165">
+    <x:row r="3" spans="1:166">
       <x:c r="C3" s="2" t="s">
         <x:v>1</x:v>
       </x:c>
@@ -1559,13 +1560,16 @@
       <x:c r="FI3" s="2" t="s">
         <x:v>163</x:v>
       </x:c>
+      <x:c r="FJ3" s="2" t="s">
+        <x:v>164</x:v>
+      </x:c>
     </x:row>
-    <x:row r="4" spans="1:165">
+    <x:row r="4" spans="1:166">
       <x:c r="A4" s="2" t="s">
-        <x:v>164</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>165</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="C4" s="3" t="n">
         <x:v>36322</x:v>
@@ -2048,18 +2052,21 @@
         <x:v>300391</x:v>
       </x:c>
       <x:c r="FG4" s="3" t="n">
-        <x:v>327574</x:v>
+        <x:v>328476</x:v>
       </x:c>
       <x:c r="FH4" s="3" t="n">
-        <x:v>354449</x:v>
+        <x:v>355609</x:v>
       </x:c>
       <x:c r="FI4" s="3" t="n">
-        <x:v>442854</x:v>
+        <x:v>443957</x:v>
+      </x:c>
+      <x:c r="FJ4" s="3" t="n">
+        <x:v>594619</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:165">
+    <x:row r="5" spans="1:166">
       <x:c r="B5" s="2" t="s">
-        <x:v>166</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="C5" s="3" t="n">
         <x:v>24922</x:v>
@@ -2542,18 +2549,21 @@
         <x:v>217253</x:v>
       </x:c>
       <x:c r="FG5" s="3" t="n">
-        <x:v>251465</x:v>
+        <x:v>251470</x:v>
       </x:c>
       <x:c r="FH5" s="3" t="n">
-        <x:v>272787</x:v>
+        <x:v>272995</x:v>
       </x:c>
       <x:c r="FI5" s="3" t="n">
-        <x:v>350162</x:v>
+        <x:v>350417</x:v>
+      </x:c>
+      <x:c r="FJ5" s="3" t="n">
+        <x:v>493579</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:165">
+    <x:row r="6" spans="1:166">
       <x:c r="B6" s="2" t="s">
-        <x:v>167</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="C6" s="3" t="n">
         <x:v>12279</x:v>
@@ -3042,12 +3052,15 @@
         <x:v>152108</x:v>
       </x:c>
       <x:c r="FI6" s="3" t="n">
-        <x:v>219736</x:v>
+        <x:v>219737</x:v>
+      </x:c>
+      <x:c r="FJ6" s="3" t="n">
+        <x:v>352783</x:v>
       </x:c>
     </x:row>
-    <x:row r="7" spans="1:165">
+    <x:row r="7" spans="1:166">
       <x:c r="B7" s="2" t="s">
-        <x:v>168</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="C7" s="3" t="n">
         <x:v>1291</x:v>
@@ -3533,15 +3546,18 @@
         <x:v>1500</x:v>
       </x:c>
       <x:c r="FH7" s="3" t="n">
-        <x:v>2785</x:v>
+        <x:v>2782</x:v>
       </x:c>
       <x:c r="FI7" s="3" t="n">
-        <x:v>7828</x:v>
+        <x:v>7844</x:v>
+      </x:c>
+      <x:c r="FJ7" s="3" t="n">
+        <x:v>916</x:v>
       </x:c>
     </x:row>
-    <x:row r="8" spans="1:165">
+    <x:row r="8" spans="1:166">
       <x:c r="B8" s="2" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="C8" s="3" t="n">
         <x:v>101</x:v>
@@ -4030,12 +4046,15 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="FI8" s="3" t="n">
-        <x:v>100</x:v>
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="FJ8" s="3" t="n">
+        <x:v>83</x:v>
       </x:c>
     </x:row>
-    <x:row r="9" spans="1:165">
+    <x:row r="9" spans="1:166">
       <x:c r="B9" s="2" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="C9" s="3" t="n">
         <x:v>11250</x:v>
@@ -4518,18 +4537,21 @@
         <x:v>108067</x:v>
       </x:c>
       <x:c r="FG9" s="3" t="n">
-        <x:v>112847</x:v>
+        <x:v>112852</x:v>
       </x:c>
       <x:c r="FH9" s="3" t="n">
-        <x:v>117807</x:v>
+        <x:v>118018</x:v>
       </x:c>
       <x:c r="FI9" s="3" t="n">
-        <x:v>122498</x:v>
+        <x:v>122738</x:v>
+      </x:c>
+      <x:c r="FJ9" s="3" t="n">
+        <x:v>139797</x:v>
       </x:c>
     </x:row>
-    <x:row r="10" spans="1:165">
+    <x:row r="10" spans="1:166">
       <x:c r="B10" s="2" t="s">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="C10" s="3" t="n">
         <x:v>11400</x:v>
@@ -5012,18 +5034,21 @@
         <x:v>83138</x:v>
       </x:c>
       <x:c r="FG10" s="3" t="n">
-        <x:v>76109</x:v>
+        <x:v>77006</x:v>
       </x:c>
       <x:c r="FH10" s="3" t="n">
-        <x:v>81662</x:v>
+        <x:v>82614</x:v>
       </x:c>
       <x:c r="FI10" s="3" t="n">
-        <x:v>92692</x:v>
+        <x:v>93540</x:v>
+      </x:c>
+      <x:c r="FJ10" s="3" t="n">
+        <x:v>101040</x:v>
       </x:c>
     </x:row>
-    <x:row r="11" spans="1:165">
+    <x:row r="11" spans="1:166">
       <x:c r="B11" s="2" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="C11" s="3" t="n">
         <x:v>7151</x:v>
@@ -5506,18 +5531,21 @@
         <x:v>23642</x:v>
       </x:c>
       <x:c r="FG11" s="3" t="n">
-        <x:v>23329</x:v>
+        <x:v>23762</x:v>
       </x:c>
       <x:c r="FH11" s="3" t="n">
-        <x:v>27092</x:v>
+        <x:v>27525</x:v>
       </x:c>
       <x:c r="FI11" s="3" t="n">
-        <x:v>30923</x:v>
+        <x:v>31305</x:v>
+      </x:c>
+      <x:c r="FJ11" s="3" t="n">
+        <x:v>33343</x:v>
       </x:c>
     </x:row>
-    <x:row r="12" spans="1:165">
+    <x:row r="12" spans="1:166">
       <x:c r="B12" s="2" t="s">
-        <x:v>173</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="C12" s="3" t="n">
         <x:v>473</x:v>
@@ -6000,18 +6028,21 @@
         <x:v>5255</x:v>
       </x:c>
       <x:c r="FG12" s="3" t="n">
-        <x:v>4250</x:v>
+        <x:v>4377</x:v>
       </x:c>
       <x:c r="FH12" s="3" t="n">
-        <x:v>5241</x:v>
+        <x:v>5366</x:v>
       </x:c>
       <x:c r="FI12" s="3" t="n">
-        <x:v>6401</x:v>
+        <x:v>6520</x:v>
+      </x:c>
+      <x:c r="FJ12" s="3" t="n">
+        <x:v>6824</x:v>
       </x:c>
     </x:row>
-    <x:row r="13" spans="1:165">
+    <x:row r="13" spans="1:166">
       <x:c r="B13" s="2" t="s">
-        <x:v>174</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="C13" s="3" t="n">
         <x:v>784</x:v>
@@ -6502,10 +6533,13 @@
       <x:c r="FI13" s="3" t="n">
         <x:v>3317</x:v>
       </x:c>
+      <x:c r="FJ13" s="3" t="n">
+        <x:v>3127</x:v>
+      </x:c>
     </x:row>
-    <x:row r="14" spans="1:165">
+    <x:row r="14" spans="1:166">
       <x:c r="B14" s="2" t="s">
-        <x:v>175</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="C14" s="3" t="n">
         <x:v>685</x:v>
@@ -6994,12 +7028,15 @@
         <x:v>2371</x:v>
       </x:c>
       <x:c r="FI14" s="3" t="n">
-        <x:v>7312</x:v>
+        <x:v>7207</x:v>
+      </x:c>
+      <x:c r="FJ14" s="3" t="n">
+        <x:v>4965</x:v>
       </x:c>
     </x:row>
-    <x:row r="15" spans="1:165">
+    <x:row r="15" spans="1:166">
       <x:c r="B15" s="2" t="s">
-        <x:v>176</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="C15" s="3" t="n">
         <x:v>780</x:v>
@@ -7482,18 +7519,21 @@
         <x:v>8948</x:v>
       </x:c>
       <x:c r="FG15" s="3" t="n">
-        <x:v>7258</x:v>
+        <x:v>7284</x:v>
       </x:c>
       <x:c r="FH15" s="3" t="n">
-        <x:v>7307</x:v>
+        <x:v>7320</x:v>
       </x:c>
       <x:c r="FI15" s="3" t="n">
-        <x:v>8405</x:v>
+        <x:v>8335</x:v>
+      </x:c>
+      <x:c r="FJ15" s="3" t="n">
+        <x:v>10207</x:v>
       </x:c>
     </x:row>
-    <x:row r="16" spans="1:165">
+    <x:row r="16" spans="1:166">
       <x:c r="B16" s="2" t="s">
-        <x:v>177</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="C16" s="3" t="n">
         <x:v>53</x:v>
@@ -7982,12 +8022,15 @@
         <x:v>1469</x:v>
       </x:c>
       <x:c r="FI16" s="3" t="n">
-        <x:v>1335</x:v>
+        <x:v>1334</x:v>
+      </x:c>
+      <x:c r="FJ16" s="3" t="n">
+        <x:v>1542</x:v>
       </x:c>
     </x:row>
-    <x:row r="17" spans="1:165">
+    <x:row r="17" spans="1:166">
       <x:c r="B17" s="2" t="s">
-        <x:v>178</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="C17" s="3" t="n">
         <x:v>150</x:v>
@@ -8470,18 +8513,21 @@
         <x:v>3592</x:v>
       </x:c>
       <x:c r="FG17" s="3" t="n">
-        <x:v>2817</x:v>
+        <x:v>2815</x:v>
       </x:c>
       <x:c r="FH17" s="3" t="n">
-        <x:v>2453</x:v>
+        <x:v>2451</x:v>
       </x:c>
       <x:c r="FI17" s="3" t="n">
-        <x:v>3052</x:v>
+        <x:v>3015</x:v>
+      </x:c>
+      <x:c r="FJ17" s="3" t="n">
+        <x:v>3639</x:v>
       </x:c>
     </x:row>
-    <x:row r="18" spans="1:165">
+    <x:row r="18" spans="1:166">
       <x:c r="B18" s="2" t="s">
-        <x:v>179</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="C18" s="3" t="n">
         <x:v>325</x:v>
@@ -8964,18 +9010,21 @@
         <x:v>1558</x:v>
       </x:c>
       <x:c r="FG18" s="3" t="n">
-        <x:v>1398</x:v>
+        <x:v>1411</x:v>
       </x:c>
       <x:c r="FH18" s="3" t="n">
         <x:v>1396</x:v>
       </x:c>
       <x:c r="FI18" s="3" t="n">
-        <x:v>1907</x:v>
+        <x:v>1909</x:v>
+      </x:c>
+      <x:c r="FJ18" s="3" t="n">
+        <x:v>2401</x:v>
       </x:c>
     </x:row>
-    <x:row r="19" spans="1:165">
+    <x:row r="19" spans="1:166">
       <x:c r="B19" s="2" t="s">
-        <x:v>180</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="C19" s="3" t="n">
         <x:v>242</x:v>
@@ -9458,18 +9507,21 @@
         <x:v>1675</x:v>
       </x:c>
       <x:c r="FG19" s="3" t="n">
-        <x:v>1098</x:v>
+        <x:v>1113</x:v>
       </x:c>
       <x:c r="FH19" s="3" t="n">
-        <x:v>1370</x:v>
+        <x:v>1385</x:v>
       </x:c>
       <x:c r="FI19" s="3" t="n">
-        <x:v>1500</x:v>
+        <x:v>1466</x:v>
+      </x:c>
+      <x:c r="FJ19" s="3" t="n">
+        <x:v>1943</x:v>
       </x:c>
     </x:row>
-    <x:row r="20" spans="1:165">
+    <x:row r="20" spans="1:166">
       <x:c r="B20" s="2" t="s">
-        <x:v>181</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="C20" s="3" t="n">
         <x:v>10</x:v>
@@ -9960,10 +10012,13 @@
       <x:c r="FI20" s="3" t="n">
         <x:v>611</x:v>
       </x:c>
+      <x:c r="FJ20" s="3" t="n">
+        <x:v>682</x:v>
+      </x:c>
     </x:row>
-    <x:row r="21" spans="1:165">
+    <x:row r="21" spans="1:166">
       <x:c r="B21" s="2" t="s">
-        <x:v>182</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="C21" s="3" t="n">
         <x:v>801</x:v>
@@ -10446,18 +10501,21 @@
         <x:v>23803</x:v>
       </x:c>
       <x:c r="FG21" s="3" t="n">
-        <x:v>22231</x:v>
+        <x:v>22656</x:v>
       </x:c>
       <x:c r="FH21" s="3" t="n">
-        <x:v>22416</x:v>
+        <x:v>22794</x:v>
       </x:c>
       <x:c r="FI21" s="3" t="n">
-        <x:v>21916</x:v>
+        <x:v>22302</x:v>
+      </x:c>
+      <x:c r="FJ21" s="3" t="n">
+        <x:v>25256</x:v>
       </x:c>
     </x:row>
-    <x:row r="22" spans="1:165">
+    <x:row r="22" spans="1:166">
       <x:c r="B22" s="2" t="s">
-        <x:v>183</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="C22" s="3" t="n">
         <x:v>250</x:v>
@@ -10946,12 +11004,15 @@
         <x:v>8790</x:v>
       </x:c>
       <x:c r="FI22" s="3" t="n">
-        <x:v>8312</x:v>
+        <x:v>8353</x:v>
+      </x:c>
+      <x:c r="FJ22" s="3" t="n">
+        <x:v>8188</x:v>
       </x:c>
     </x:row>
-    <x:row r="23" spans="1:165">
+    <x:row r="23" spans="1:166">
       <x:c r="B23" s="2" t="s">
-        <x:v>184</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="C23" s="3" t="n">
         <x:v>44</x:v>
@@ -11434,18 +11495,21 @@
         <x:v>6589</x:v>
       </x:c>
       <x:c r="FG23" s="3" t="n">
-        <x:v>5130</x:v>
+        <x:v>5278</x:v>
       </x:c>
       <x:c r="FH23" s="3" t="n">
-        <x:v>5277</x:v>
+        <x:v>5443</x:v>
       </x:c>
       <x:c r="FI23" s="3" t="n">
-        <x:v>4792</x:v>
+        <x:v>4698</x:v>
+      </x:c>
+      <x:c r="FJ23" s="3" t="n">
+        <x:v>6268</x:v>
       </x:c>
     </x:row>
-    <x:row r="24" spans="1:165">
+    <x:row r="24" spans="1:166">
       <x:c r="B24" s="2" t="s">
-        <x:v>185</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="C24" s="3" t="n">
         <x:v>41</x:v>
@@ -11928,18 +11992,21 @@
         <x:v>1139</x:v>
       </x:c>
       <x:c r="FG24" s="3" t="n">
-        <x:v>852</x:v>
+        <x:v>891</x:v>
       </x:c>
       <x:c r="FH24" s="3" t="n">
-        <x:v>1293</x:v>
+        <x:v>1325</x:v>
       </x:c>
       <x:c r="FI24" s="3" t="n">
-        <x:v>1145</x:v>
+        <x:v>1124</x:v>
+      </x:c>
+      <x:c r="FJ24" s="3" t="n">
+        <x:v>1361</x:v>
       </x:c>
     </x:row>
-    <x:row r="25" spans="1:165">
+    <x:row r="25" spans="1:166">
       <x:c r="B25" s="2" t="s">
-        <x:v>186</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="C25" s="3" t="n">
         <x:v>465</x:v>
@@ -12422,18 +12489,21 @@
         <x:v>8275</x:v>
       </x:c>
       <x:c r="FG25" s="3" t="n">
-        <x:v>6873</x:v>
+        <x:v>7111</x:v>
       </x:c>
       <x:c r="FH25" s="3" t="n">
-        <x:v>7056</x:v>
+        <x:v>7236</x:v>
       </x:c>
       <x:c r="FI25" s="3" t="n">
-        <x:v>7667</x:v>
+        <x:v>8127</x:v>
+      </x:c>
+      <x:c r="FJ25" s="3" t="n">
+        <x:v>9439</x:v>
       </x:c>
     </x:row>
-    <x:row r="26" spans="1:165">
+    <x:row r="26" spans="1:166">
       <x:c r="B26" s="2" t="s">
-        <x:v>187</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="C26" s="3" t="n">
         <x:v>727</x:v>
@@ -12916,18 +12986,21 @@
         <x:v>15763</x:v>
       </x:c>
       <x:c r="FG26" s="3" t="n">
-        <x:v>13866</x:v>
+        <x:v>13752</x:v>
       </x:c>
       <x:c r="FH26" s="3" t="n">
-        <x:v>14268</x:v>
+        <x:v>14271</x:v>
       </x:c>
       <x:c r="FI26" s="3" t="n">
-        <x:v>14417</x:v>
+        <x:v>14555</x:v>
+      </x:c>
+      <x:c r="FJ26" s="3" t="n">
+        <x:v>17318</x:v>
       </x:c>
     </x:row>
-    <x:row r="27" spans="1:165">
+    <x:row r="27" spans="1:166">
       <x:c r="B27" s="2" t="s">
-        <x:v>188</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="C27" s="3" t="n">
         <x:v>43</x:v>
@@ -13410,18 +13483,21 @@
         <x:v>3321</x:v>
       </x:c>
       <x:c r="FG27" s="3" t="n">
-        <x:v>3268</x:v>
+        <x:v>3265</x:v>
       </x:c>
       <x:c r="FH27" s="3" t="n">
-        <x:v>3038</x:v>
+        <x:v>2893</x:v>
       </x:c>
       <x:c r="FI27" s="3" t="n">
-        <x:v>3403</x:v>
+        <x:v>3256</x:v>
+      </x:c>
+      <x:c r="FJ27" s="3" t="n">
+        <x:v>3930</x:v>
       </x:c>
     </x:row>
-    <x:row r="28" spans="1:165">
+    <x:row r="28" spans="1:166">
       <x:c r="B28" s="2" t="s">
-        <x:v>189</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="C28" s="3" t="n">
         <x:v>70</x:v>
@@ -13912,10 +13988,13 @@
       <x:c r="FI28" s="3" t="n">
         <x:v>2078</x:v>
       </x:c>
+      <x:c r="FJ28" s="3" t="n">
+        <x:v>2662</x:v>
+      </x:c>
     </x:row>
-    <x:row r="29" spans="1:165">
+    <x:row r="29" spans="1:166">
       <x:c r="B29" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="C29" s="3" t="n">
         <x:v>359</x:v>
@@ -14406,10 +14485,13 @@
       <x:c r="FI29" s="3" t="n">
         <x:v>918</x:v>
       </x:c>
+      <x:c r="FJ29" s="3" t="n">
+        <x:v>1760</x:v>
+      </x:c>
     </x:row>
-    <x:row r="30" spans="1:165">
+    <x:row r="30" spans="1:166">
       <x:c r="B30" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="C30" s="3" t="n">
         <x:v>34</x:v>
@@ -14892,18 +14974,21 @@
         <x:v>485</x:v>
       </x:c>
       <x:c r="FG30" s="3" t="n">
-        <x:v>354</x:v>
+        <x:v>363</x:v>
       </x:c>
       <x:c r="FH30" s="3" t="n">
-        <x:v>235</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="FI30" s="3" t="n">
         <x:v>555</x:v>
       </x:c>
+      <x:c r="FJ30" s="3" t="n">
+        <x:v>604</x:v>
+      </x:c>
     </x:row>
-    <x:row r="31" spans="1:165">
+    <x:row r="31" spans="1:166">
       <x:c r="B31" s="2" t="s">
-        <x:v>192</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="C31" s="3" t="n">
         <x:v>33</x:v>
@@ -15386,18 +15471,21 @@
         <x:v>1728</x:v>
       </x:c>
       <x:c r="FG31" s="3" t="n">
-        <x:v>1726</x:v>
+        <x:v>1520</x:v>
       </x:c>
       <x:c r="FH31" s="3" t="n">
-        <x:v>2087</x:v>
+        <x:v>2079</x:v>
       </x:c>
       <x:c r="FI31" s="3" t="n">
-        <x:v>2043</x:v>
+        <x:v>2036</x:v>
+      </x:c>
+      <x:c r="FJ31" s="3" t="n">
+        <x:v>2133</x:v>
       </x:c>
     </x:row>
-    <x:row r="32" spans="1:165">
+    <x:row r="32" spans="1:166">
       <x:c r="B32" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="C32" s="3" t="n">
         <x:v>63</x:v>
@@ -15880,18 +15968,21 @@
         <x:v>5697</x:v>
       </x:c>
       <x:c r="FG32" s="3" t="n">
-        <x:v>4591</x:v>
+        <x:v>4677</x:v>
       </x:c>
       <x:c r="FH32" s="3" t="n">
-        <x:v>4713</x:v>
+        <x:v>4867</x:v>
       </x:c>
       <x:c r="FI32" s="3" t="n">
-        <x:v>4311</x:v>
+        <x:v>4542</x:v>
+      </x:c>
+      <x:c r="FJ32" s="3" t="n">
+        <x:v>4943</x:v>
       </x:c>
     </x:row>
-    <x:row r="33" spans="1:165">
+    <x:row r="33" spans="1:166">
       <x:c r="B33" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="C33" s="3" t="n">
         <x:v>124</x:v>
@@ -16377,15 +16468,18 @@
         <x:v>1312</x:v>
       </x:c>
       <x:c r="FH33" s="3" t="n">
-        <x:v>1146</x:v>
+        <x:v>1137</x:v>
       </x:c>
       <x:c r="FI33" s="3" t="n">
-        <x:v>1109</x:v>
+        <x:v>1170</x:v>
+      </x:c>
+      <x:c r="FJ33" s="3" t="n">
+        <x:v>1286</x:v>
       </x:c>
     </x:row>
-    <x:row r="34" spans="1:165">
+    <x:row r="34" spans="1:166">
       <x:c r="B34" s="2" t="s">
-        <x:v>195</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="C34" s="3" t="n">
         <x:v>11400</x:v>
@@ -16868,143 +16962,146 @@
         <x:v>81728</x:v>
       </x:c>
       <x:c r="FG34" s="3" t="n">
-        <x:v>74733</x:v>
+        <x:v>75624</x:v>
       </x:c>
       <x:c r="FH34" s="3" t="n">
-        <x:v>79780</x:v>
+        <x:v>80738</x:v>
       </x:c>
       <x:c r="FI34" s="3" t="n">
-        <x:v>91008</x:v>
+        <x:v>91856</x:v>
+      </x:c>
+      <x:c r="FJ34" s="3" t="n">
+        <x:v>99171</x:v>
       </x:c>
     </x:row>
-    <x:row r="37" spans="1:165">
+    <x:row r="37" spans="1:166">
       <x:c r="A37" s="0" t="s">
-        <x:v>196</x:v>
+        <x:v>197</x:v>
       </x:c>
     </x:row>
-    <x:row r="38" spans="1:165">
+    <x:row r="38" spans="1:166">
       <x:c r="A38" s="0" t="s">
-        <x:v>197</x:v>
+        <x:v>198</x:v>
       </x:c>
     </x:row>
-    <x:row r="39" spans="1:165">
+    <x:row r="39" spans="1:166">
       <x:c r="A39" s="0" t="s">
+        <x:v>199</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:166">
+      <x:c r="A41" s="0" t="s">
+        <x:v>200</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:166">
+      <x:c r="A42" s="0" t="s">
+        <x:v>201</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:166">
+      <x:c r="A44" s="0" t="s">
+        <x:v>202</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:166">
+      <x:c r="A45" s="0" t="s">
         <x:v>198</x:v>
       </x:c>
     </x:row>
-    <x:row r="41" spans="1:165">
-      <x:c r="A41" s="0" t="s">
-        <x:v>199</x:v>
+    <x:row r="46" spans="1:166">
+      <x:c r="A46" s="0" t="s">
+        <x:v>203</x:v>
       </x:c>
     </x:row>
-    <x:row r="42" spans="1:165">
-      <x:c r="A42" s="0" t="s">
-        <x:v>200</x:v>
+    <x:row r="47" spans="1:166">
+      <x:c r="A47" s="0" t="s">
+        <x:v>204</x:v>
       </x:c>
     </x:row>
-    <x:row r="44" spans="1:165">
-      <x:c r="A44" s="0" t="s">
-        <x:v>201</x:v>
+    <x:row r="48" spans="1:166">
+      <x:c r="A48" s="0" t="s">
+        <x:v>205</x:v>
       </x:c>
     </x:row>
-    <x:row r="45" spans="1:165">
-      <x:c r="A45" s="0" t="s">
-        <x:v>197</x:v>
+    <x:row r="52" spans="1:166">
+      <x:c r="A52" s="0" t="s">
+        <x:v>206</x:v>
       </x:c>
     </x:row>
-    <x:row r="46" spans="1:165">
-      <x:c r="A46" s="0" t="s">
-        <x:v>202</x:v>
+    <x:row r="54" spans="1:166">
+      <x:c r="A54" s="0" t="s">
+        <x:v>207</x:v>
       </x:c>
     </x:row>
-    <x:row r="47" spans="1:165">
-      <x:c r="A47" s="0" t="s">
-        <x:v>203</x:v>
+    <x:row r="55" spans="1:166">
+      <x:c r="A55" s="0" t="s">
+        <x:v>198</x:v>
       </x:c>
     </x:row>
-    <x:row r="48" spans="1:165">
-      <x:c r="A48" s="0" t="s">
-        <x:v>204</x:v>
+    <x:row r="56" spans="1:166">
+      <x:c r="A56" s="0" t="s">
+        <x:v>208</x:v>
       </x:c>
     </x:row>
-    <x:row r="52" spans="1:165">
-      <x:c r="A52" s="0" t="s">
-        <x:v>205</x:v>
+    <x:row r="57" spans="1:166">
+      <x:c r="A57" s="0" t="s">
+        <x:v>209</x:v>
       </x:c>
     </x:row>
-    <x:row r="54" spans="1:165">
-      <x:c r="A54" s="0" t="s">
-        <x:v>206</x:v>
+    <x:row r="58" spans="1:166">
+      <x:c r="A58" s="0" t="s">
+        <x:v>198</x:v>
       </x:c>
     </x:row>
-    <x:row r="55" spans="1:165">
-      <x:c r="A55" s="0" t="s">
-        <x:v>197</x:v>
+    <x:row r="59" spans="1:166">
+      <x:c r="A59" s="0" t="s">
+        <x:v>210</x:v>
       </x:c>
     </x:row>
-    <x:row r="56" spans="1:165">
-      <x:c r="A56" s="0" t="s">
-        <x:v>207</x:v>
+    <x:row r="61" spans="1:166">
+      <x:c r="A61" s="0" t="s">
+        <x:v>211</x:v>
       </x:c>
     </x:row>
-    <x:row r="57" spans="1:165">
-      <x:c r="A57" s="0" t="s">
-        <x:v>208</x:v>
+    <x:row r="62" spans="1:166">
+      <x:c r="A62" s="0" t="s">
+        <x:v>165</x:v>
       </x:c>
     </x:row>
-    <x:row r="58" spans="1:165">
-      <x:c r="A58" s="0" t="s">
-        <x:v>197</x:v>
+    <x:row r="63" spans="1:166">
+      <x:c r="A63" s="0" t="s">
+        <x:v>212</x:v>
       </x:c>
     </x:row>
-    <x:row r="59" spans="1:165">
-      <x:c r="A59" s="0" t="s">
-        <x:v>209</x:v>
+    <x:row r="66" spans="1:166">
+      <x:c r="A66" s="0" t="s">
+        <x:v>198</x:v>
       </x:c>
     </x:row>
-    <x:row r="61" spans="1:165">
-      <x:c r="A61" s="0" t="s">
-        <x:v>210</x:v>
+    <x:row r="67" spans="1:166">
+      <x:c r="A67" s="0" t="s">
+        <x:v>213</x:v>
       </x:c>
     </x:row>
-    <x:row r="62" spans="1:165">
-      <x:c r="A62" s="0" t="s">
-        <x:v>164</x:v>
+    <x:row r="72" spans="1:166">
+      <x:c r="A72" s="0" t="s">
+        <x:v>214</x:v>
       </x:c>
     </x:row>
-    <x:row r="63" spans="1:165">
-      <x:c r="A63" s="0" t="s">
-        <x:v>211</x:v>
+    <x:row r="73" spans="1:166">
+      <x:c r="A73" s="0" t="s">
+        <x:v>215</x:v>
       </x:c>
     </x:row>
-    <x:row r="66" spans="1:165">
-      <x:c r="A66" s="0" t="s">
-        <x:v>197</x:v>
+    <x:row r="75" spans="1:166">
+      <x:c r="A75" s="0" t="s">
+        <x:v>216</x:v>
       </x:c>
     </x:row>
-    <x:row r="67" spans="1:165">
-      <x:c r="A67" s="0" t="s">
-        <x:v>212</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="72" spans="1:165">
-      <x:c r="A72" s="0" t="s">
-        <x:v>213</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="73" spans="1:165">
-      <x:c r="A73" s="0" t="s">
-        <x:v>214</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="75" spans="1:165">
-      <x:c r="A75" s="0" t="s">
-        <x:v>215</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="76" spans="1:165">
+    <x:row r="76" spans="1:166">
       <x:c r="A76" s="0" t="s">
-        <x:v>216</x:v>
+        <x:v>217</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
